--- a/biology/Zoologie/Ceratophrys_cranwelli/Ceratophrys_cranwelli.xlsx
+++ b/biology/Zoologie/Ceratophrys_cranwelli/Ceratophrys_cranwelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratophrys cranwelli, la Grenouille cornue de Cranwell, est une espèce d'amphibiens de la famille des Ceratophryidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratophrys cranwelli, la Grenouille cornue de Cranwell, est une espèce d'amphibiens de la famille des Ceratophryidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre dans le Gran Chaco jusqu'à 700 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre dans le Gran Chaco jusqu'à 700 m d'altitude, :
 en Argentine dans les provinces de Santiago del Estero, de Córdoba, de Santa Fe, de Corrientes, de Chaco, de Formosa et de Salta ;
 en Bolivie dans les départements de Tarija, Chuquisaca et Santa Cruz ;
 au Brésil dans l'ouest du Mato Grosso do Sul ;
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ceratophrys sont des grenouilles massives. Le mâle est généralement plus petit que la femelle (environ 10 cm chez le mâle contre 15 cm chez la femelle). Les mâles possèdent un sac vocal au niveau de la gorge leur permettant de coasser. Chez le mâle adulte la gorge est plus foncée que chez la femelle. Les grenouilles cornues possèdent un appendice de peau au-dessus de l'œil, ce qui leur a valu leur nom, dont la taille varie d'une espèce à l'autre. Les plus grandes "cornes" étant observées chez Ceratophrys cornuta.
 Elles possèdent de grandes pattes leur permettant de creuser facilement la terre et de s'y enterrer. Ces grenouilles sont adaptées pour une vie exclusivement terrestre.
@@ -578,9 +594,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jorge A. Cranwell[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jorge A. Cranwell.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Barrio, 1980 : Una nueva especie de Ceratophrys (Anura, Ceratophryidae) del Dominio Chaqueño. Physis (Argentina), vol. 39, p. 21–30.</t>
         </is>
